--- a/po forecast comparison/B0CMJSH15D_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CMJSH15D_sales_po_comparison.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,668 +453,1371 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Order Week</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>44983</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>44977</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>45242</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>45236</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45243</v>
+        <v>45249</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45250</v>
+        <v>45256</v>
       </c>
       <c r="B5" t="n">
         <v>12</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45257</v>
+        <v>45263</v>
       </c>
       <c r="B6" t="n">
         <v>23</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45264</v>
+        <v>45270</v>
       </c>
       <c r="B7" t="n">
         <v>63</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45271</v>
+        <v>45277</v>
       </c>
       <c r="B8" t="n">
         <v>98</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45285</v>
+        <v>45291</v>
       </c>
       <c r="B9" t="n">
         <v>62</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45292</v>
+        <v>45298</v>
       </c>
       <c r="B10" t="n">
         <v>66</v>
       </c>
-      <c r="C10" t="n">
-        <v>1224</v>
+      <c r="C10" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45299</v>
+        <v>45305</v>
       </c>
       <c r="B11" t="n">
         <v>131</v>
       </c>
-      <c r="C11" t="n">
-        <v>18</v>
+      <c r="C11" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45306</v>
+        <v>45312</v>
       </c>
       <c r="B12" t="n">
         <v>137</v>
       </c>
-      <c r="C12" t="n">
-        <v>486</v>
+      <c r="C12" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45313</v>
+        <v>45319</v>
       </c>
       <c r="B13" t="n">
         <v>158</v>
       </c>
-      <c r="C13" t="n">
-        <v>144</v>
+      <c r="C13" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45320</v>
+        <v>45326</v>
       </c>
       <c r="B14" t="n">
         <v>225</v>
       </c>
-      <c r="C14" t="n">
-        <v>1224</v>
+      <c r="C14" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45327</v>
+        <v>45333</v>
       </c>
       <c r="B15" t="n">
         <v>228</v>
       </c>
-      <c r="C15" t="n">
-        <v>720</v>
+      <c r="C15" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45334</v>
+        <v>45340</v>
       </c>
       <c r="B16" t="n">
         <v>256</v>
       </c>
-      <c r="C16" t="n">
-        <v>1008</v>
+      <c r="C16" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45341</v>
+        <v>45347</v>
       </c>
       <c r="B17" t="n">
         <v>225</v>
       </c>
-      <c r="C17" t="n">
-        <v>936</v>
+      <c r="C17" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45348</v>
+        <v>45354</v>
       </c>
       <c r="B18" t="n">
         <v>233</v>
       </c>
-      <c r="C18" t="n">
-        <v>882</v>
+      <c r="C18" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45355</v>
+        <v>45361</v>
       </c>
       <c r="B19" t="n">
         <v>224</v>
       </c>
-      <c r="C19" t="n">
-        <v>420</v>
+      <c r="C19" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45362</v>
+        <v>45368</v>
       </c>
       <c r="B20" t="n">
         <v>219</v>
       </c>
-      <c r="C20" t="n">
-        <v>696</v>
+      <c r="C20" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45369</v>
+        <v>45375</v>
       </c>
       <c r="B21" t="n">
         <v>244</v>
       </c>
-      <c r="C21" t="n">
-        <v>156</v>
+      <c r="C21" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45376</v>
+        <v>45382</v>
       </c>
       <c r="B22" t="n">
         <v>244</v>
       </c>
-      <c r="C22" t="n">
-        <v>474</v>
+      <c r="C22" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45383</v>
+        <v>45389</v>
       </c>
       <c r="B23" t="n">
         <v>197</v>
       </c>
-      <c r="C23" t="n">
-        <v>228</v>
+      <c r="C23" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45390</v>
+        <v>45396</v>
       </c>
       <c r="B24" t="n">
         <v>192</v>
       </c>
-      <c r="C24" t="n">
-        <v>876</v>
+      <c r="C24" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45397</v>
+        <v>45403</v>
       </c>
       <c r="B25" t="n">
         <v>180</v>
       </c>
-      <c r="C25" t="n">
-        <v>12</v>
+      <c r="C25" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45404</v>
+        <v>45410</v>
       </c>
       <c r="B26" t="n">
         <v>147</v>
       </c>
-      <c r="C26" t="n">
-        <v>780</v>
+      <c r="C26" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45411</v>
+        <v>45417</v>
       </c>
       <c r="B27" t="n">
         <v>140</v>
       </c>
-      <c r="C27" t="n">
-        <v>60</v>
+      <c r="C27" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45418</v>
+        <v>45424</v>
       </c>
       <c r="B28" t="n">
         <v>132</v>
       </c>
-      <c r="C28" t="n">
-        <v>408</v>
+      <c r="C28" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45425</v>
+        <v>45431</v>
       </c>
       <c r="B29" t="n">
         <v>141</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="D29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45432</v>
+        <v>45438</v>
       </c>
       <c r="B30" t="n">
         <v>171</v>
       </c>
-      <c r="C30" t="n">
-        <v>300</v>
+      <c r="C30" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45439</v>
+        <v>45445</v>
       </c>
       <c r="B31" t="n">
         <v>164</v>
       </c>
-      <c r="C31" t="n">
-        <v>708</v>
+      <c r="C31" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45446</v>
+        <v>45452</v>
       </c>
       <c r="B32" t="n">
         <v>210</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="D32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45453</v>
+        <v>45459</v>
       </c>
       <c r="B33" t="n">
         <v>255</v>
       </c>
-      <c r="C33" t="n">
-        <v>3348</v>
+      <c r="C33" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45460</v>
+        <v>45466</v>
       </c>
       <c r="B34" t="n">
         <v>199</v>
       </c>
-      <c r="C34" t="n">
-        <v>504</v>
+      <c r="C34" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45467</v>
+        <v>45473</v>
       </c>
       <c r="B35" t="n">
         <v>170</v>
       </c>
-      <c r="C35" t="n">
-        <v>588</v>
+      <c r="C35" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45474</v>
+        <v>45480</v>
       </c>
       <c r="B36" t="n">
         <v>169</v>
       </c>
-      <c r="C36" t="n">
-        <v>348</v>
+      <c r="C36" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45481</v>
+        <v>45487</v>
       </c>
       <c r="B37" t="n">
         <v>891</v>
       </c>
-      <c r="C37" t="n">
-        <v>408</v>
+      <c r="C37" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45488</v>
+        <v>45494</v>
       </c>
       <c r="B38" t="n">
         <v>467</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="D38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45495</v>
+        <v>45501</v>
       </c>
       <c r="B39" t="n">
         <v>238</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45502</v>
+        <v>45508</v>
       </c>
       <c r="B40" t="n">
         <v>188</v>
       </c>
-      <c r="C40" t="n">
-        <v>2520</v>
+      <c r="C40" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B41" t="n">
         <v>139</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="D41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45516</v>
+        <v>45522</v>
       </c>
       <c r="B42" t="n">
         <v>215</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="D42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45523</v>
+        <v>45529</v>
       </c>
       <c r="B43" t="n">
         <v>1356</v>
       </c>
-      <c r="C43" t="n">
-        <v>2016</v>
+      <c r="C43" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45530</v>
+        <v>45536</v>
       </c>
       <c r="B44" t="n">
         <v>348</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="D44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45537</v>
+        <v>45543</v>
       </c>
       <c r="B45" t="n">
         <v>273</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="D45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45544</v>
+        <v>45550</v>
       </c>
       <c r="B46" t="n">
         <v>80</v>
       </c>
-      <c r="C46" t="n">
-        <v>876</v>
+      <c r="C46" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45551</v>
+        <v>45557</v>
       </c>
       <c r="B47" t="n">
         <v>37</v>
       </c>
-      <c r="C47" t="n">
-        <v>1848</v>
+      <c r="C47" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45558</v>
+        <v>45564</v>
       </c>
       <c r="B48" t="n">
         <v>42</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="D48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45565</v>
+        <v>45571</v>
       </c>
       <c r="B49" t="n">
         <v>192</v>
       </c>
-      <c r="C49" t="n">
-        <v>12</v>
+      <c r="C49" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45572</v>
+        <v>45578</v>
       </c>
       <c r="B50" t="n">
         <v>344</v>
       </c>
-      <c r="C50" t="n">
-        <v>12</v>
+      <c r="C50" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45579</v>
+        <v>45585</v>
       </c>
       <c r="B51" t="n">
         <v>246</v>
       </c>
-      <c r="C51" t="n">
-        <v>24</v>
+      <c r="C51" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="B52" t="n">
         <v>189</v>
       </c>
-      <c r="C52" t="n">
-        <v>1428</v>
+      <c r="C52" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45593</v>
+        <v>45599</v>
       </c>
       <c r="B53" t="n">
         <v>211</v>
       </c>
-      <c r="C53" t="n">
-        <v>1080</v>
+      <c r="C53" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="B54" t="n">
         <v>317</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="D54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45607</v>
+        <v>45613</v>
       </c>
       <c r="B55" t="n">
         <v>388</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="D55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45614</v>
+        <v>45620</v>
       </c>
       <c r="B56" t="n">
         <v>730</v>
       </c>
-      <c r="C56" t="n">
-        <v>876</v>
+      <c r="C56" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="B57" t="n">
         <v>618</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="D57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45628</v>
+        <v>45634</v>
       </c>
       <c r="B58" t="n">
         <v>380</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="D58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45635</v>
+        <v>45641</v>
       </c>
       <c r="B59" t="n">
         <v>384</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="D59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45642</v>
+        <v>45648</v>
       </c>
       <c r="B60" t="n">
         <v>253</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="D60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45649</v>
+        <v>45655</v>
       </c>
       <c r="B61" t="n">
         <v>114</v>
       </c>
-      <c r="C61" t="n">
-        <v>0</v>
+      <c r="C61" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Requested_Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Growth%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1224</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-98.52941176470588</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="B4" t="n">
+        <v>486</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="B5" t="n">
+        <v>144</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-70.37037037037037</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1224</v>
+      </c>
+      <c r="C6" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="B7" t="n">
+        <v>720</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-41.17647058823529</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1008</v>
+      </c>
+      <c r="C8" t="n">
+        <v>39.99999999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="B9" t="n">
+        <v>936</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-7.14285714285714</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="B10" t="n">
+        <v>882</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-5.769230769230771</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="B11" t="n">
+        <v>420</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-52.38095238095239</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B12" t="n">
+        <v>696</v>
+      </c>
+      <c r="C12" t="n">
+        <v>65.71428571428572</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B13" t="n">
+        <v>156</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-77.58620689655173</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B14" t="n">
+        <v>474</v>
+      </c>
+      <c r="C14" t="n">
+        <v>203.8461538461538</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B15" t="n">
+        <v>228</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-51.89873417721519</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B16" t="n">
+        <v>876</v>
+      </c>
+      <c r="C16" t="n">
+        <v>284.2105263157895</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-98.63013698630137</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B18" t="n">
+        <v>780</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B19" t="n">
+        <v>60</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-92.30769230769231</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="B20" t="n">
+        <v>408</v>
+      </c>
+      <c r="C20" t="n">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B21" t="n">
+        <v>300</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-26.47058823529411</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="B22" t="n">
+        <v>708</v>
+      </c>
+      <c r="C22" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3348</v>
+      </c>
+      <c r="C23" t="n">
+        <v>372.8813559322033</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B24" t="n">
+        <v>504</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-84.94623655913979</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B25" t="n">
+        <v>588</v>
+      </c>
+      <c r="C25" t="n">
+        <v>16.66666666666667</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B26" t="n">
+        <v>348</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-40.81632653061224</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B27" t="n">
+        <v>408</v>
+      </c>
+      <c r="C27" t="n">
+        <v>17.24137931034482</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2520</v>
+      </c>
+      <c r="C28" t="n">
+        <v>517.6470588235294</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B30" t="n">
+        <v>876</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-56.54761904761904</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1848</v>
+      </c>
+      <c r="C31" t="n">
+        <v>110.958904109589</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B32" t="n">
+        <v>12</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-99.35064935064936</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B33" t="n">
+        <v>12</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B34" t="n">
+        <v>24</v>
+      </c>
+      <c r="C34" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1428</v>
+      </c>
+      <c r="C35" t="n">
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1080</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-24.36974789915967</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B37" t="n">
+        <v>876</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-18.88888888888889</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Total_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Max_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>27648</v>
+      </c>
+      <c r="B2" t="n">
+        <v>768</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3348</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted_Next_Week_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>994.3714285714285</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B0CMJSH15D_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CMJSH15D_sales_po_comparison.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,852 +453,667 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Order Week</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44983</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>44977</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45242</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>45236</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45249</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>45243</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+      <c r="C4" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45256</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>45250</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+      <c r="C5" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45263</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>23</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>45257</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45270</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>63</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>45264</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+      <c r="C7" t="n">
+        <v>420</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45277</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>98</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>45271</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+      <c r="C8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45291</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>62</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>45285</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45298</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>66</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
+      <c r="C10" t="n">
+        <v>1224</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45305</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>131</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
+      <c r="C11" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45312</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>137</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>45306</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
+      <c r="C12" t="n">
+        <v>486</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45319</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>158</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>45313</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+      <c r="C13" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45326</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>225</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>45320</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
+      <c r="C14" t="n">
+        <v>1224</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45333</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>228</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>45327</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
+      <c r="C15" t="n">
+        <v>720</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45340</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>256</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
+      <c r="C16" t="n">
+        <v>1008</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45347</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>225</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>45341</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="C17" t="n">
+        <v>936</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45354</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>233</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>45348</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
+      <c r="C18" t="n">
+        <v>882</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45361</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>224</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>45355</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
+      <c r="C19" t="n">
+        <v>420</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45368</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>219</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
+      <c r="C20" t="n">
+        <v>696</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45375</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>244</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
+      <c r="C21" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45382</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>244</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
+      <c r="C22" t="n">
+        <v>474</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45389</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>197</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
+      <c r="C23" t="n">
+        <v>228</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45396</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>192</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>45390</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
+      <c r="C24" t="n">
+        <v>876</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45403</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>180</v>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>45397</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
+      <c r="C25" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45410</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>147</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>45404</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
+      <c r="C26" t="n">
+        <v>780</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45417</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>140</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
+      <c r="C27" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45424</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>132</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>45418</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
+      <c r="C28" t="n">
+        <v>408</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45431</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>141</v>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>45425</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="C29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45438</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B30" t="n">
         <v>171</v>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>45432</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
+      <c r="C30" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45445</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B31" t="n">
         <v>164</v>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>45439</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
+      <c r="C31" t="n">
+        <v>708</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45452</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B32" t="n">
         <v>210</v>
       </c>
-      <c r="C32" s="2" t="n">
-        <v>45446</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="C32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45459</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B33" t="n">
         <v>255</v>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>45453</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
+      <c r="C33" t="n">
+        <v>3348</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45466</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B34" t="n">
         <v>199</v>
       </c>
-      <c r="C34" s="2" t="n">
-        <v>45460</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
+      <c r="C34" t="n">
+        <v>504</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45473</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B35" t="n">
         <v>170</v>
       </c>
-      <c r="C35" s="2" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
+      <c r="C35" t="n">
+        <v>588</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45480</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B36" t="n">
         <v>169</v>
       </c>
-      <c r="C36" s="2" t="n">
-        <v>45474</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
+      <c r="C36" t="n">
+        <v>348</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45487</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B37" t="n">
         <v>891</v>
       </c>
-      <c r="C37" s="2" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
+      <c r="C37" t="n">
+        <v>408</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45494</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B38" t="n">
         <v>467</v>
       </c>
-      <c r="C38" s="2" t="n">
-        <v>45488</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="C38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45501</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B39" t="n">
         <v>238</v>
       </c>
-      <c r="C39" s="2" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="C39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45508</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B40" t="n">
         <v>188</v>
       </c>
-      <c r="C40" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
+      <c r="C40" t="n">
+        <v>2520</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45515</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B41" t="n">
         <v>139</v>
       </c>
-      <c r="C41" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="C41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45522</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B42" t="n">
         <v>215</v>
       </c>
-      <c r="C42" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="C42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45529</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B43" t="n">
         <v>1356</v>
       </c>
-      <c r="C43" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
+      <c r="C43" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45536</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B44" t="n">
         <v>348</v>
       </c>
-      <c r="C44" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="C44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45543</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B45" t="n">
         <v>273</v>
       </c>
-      <c r="C45" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="C45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45550</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B46" t="n">
         <v>80</v>
       </c>
-      <c r="C46" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
+      <c r="C46" t="n">
+        <v>876</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45557</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B47" t="n">
         <v>37</v>
       </c>
-      <c r="C47" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
+      <c r="C47" t="n">
+        <v>1848</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45564</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B48" t="n">
         <v>42</v>
       </c>
-      <c r="C48" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="C48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45571</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B49" t="n">
         <v>192</v>
       </c>
-      <c r="C49" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
+      <c r="C49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45578</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B50" t="n">
         <v>344</v>
       </c>
-      <c r="C50" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
+      <c r="C50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45585</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B51" t="n">
         <v>246</v>
       </c>
-      <c r="C51" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
+      <c r="C51" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45592</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B52" t="n">
         <v>189</v>
       </c>
-      <c r="C52" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
+      <c r="C52" t="n">
+        <v>1428</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45599</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B53" t="n">
         <v>211</v>
       </c>
-      <c r="C53" s="2" t="n">
-        <v>45593</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
+      <c r="C53" t="n">
+        <v>1080</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45606</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B54" t="n">
         <v>317</v>
       </c>
-      <c r="C54" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="D54" t="n">
+      <c r="C54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45613</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B55" t="n">
         <v>388</v>
       </c>
-      <c r="C55" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="D55" t="n">
+      <c r="C55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45620</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B56" t="n">
         <v>730</v>
       </c>
-      <c r="C56" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
+      <c r="C56" t="n">
+        <v>876</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45627</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B57" t="n">
         <v>618</v>
       </c>
-      <c r="C57" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="D57" t="n">
+      <c r="C57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45634</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B58" t="n">
         <v>380</v>
       </c>
-      <c r="C58" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="D58" t="n">
+      <c r="C58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45641</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B59" t="n">
         <v>384</v>
       </c>
-      <c r="C59" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="D59" t="n">
+      <c r="C59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45648</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B60" t="n">
         <v>253</v>
       </c>
-      <c r="C60" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="D60" t="n">
+      <c r="C60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45655</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B61" t="n">
         <v>114</v>
       </c>
-      <c r="C61" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="D61" t="n">
+      <c r="C61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1313,7 +1128,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1340,10 +1155,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>1224</v>
+        <v>66</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1351,386 +1166,430 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C3" t="n">
-        <v>-98.52941176470588</v>
+        <v>-18.18181818181818</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>486</v>
+        <v>420</v>
       </c>
       <c r="C4" t="n">
-        <v>2600</v>
+        <v>677.7777777777777</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>-70.37037037037037</v>
+        <v>-98.57142857142858</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45320</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>1224</v>
       </c>
       <c r="C6" t="n">
-        <v>750</v>
+        <v>20300</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45327</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>720</v>
+        <v>18</v>
       </c>
       <c r="C7" t="n">
-        <v>-41.17647058823529</v>
+        <v>-98.52941176470588</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45334</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>1008</v>
+        <v>486</v>
       </c>
       <c r="C8" t="n">
-        <v>39.99999999999999</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45341</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>936</v>
+        <v>144</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.14285714285714</v>
+        <v>-70.37037037037037</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45348</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>882</v>
+        <v>1224</v>
       </c>
       <c r="C10" t="n">
-        <v>-5.769230769230771</v>
+        <v>750</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45355</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>420</v>
+        <v>720</v>
       </c>
       <c r="C11" t="n">
-        <v>-52.38095238095239</v>
+        <v>-41.17647058823529</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45362</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>696</v>
+        <v>1008</v>
       </c>
       <c r="C12" t="n">
-        <v>65.71428571428572</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45369</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>156</v>
+        <v>936</v>
       </c>
       <c r="C13" t="n">
-        <v>-77.58620689655173</v>
+        <v>-7.14285714285714</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45376</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>474</v>
+        <v>882</v>
       </c>
       <c r="C14" t="n">
-        <v>203.8461538461538</v>
+        <v>-5.769230769230771</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45383</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>228</v>
+        <v>420</v>
       </c>
       <c r="C15" t="n">
-        <v>-51.89873417721519</v>
+        <v>-52.38095238095239</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45390</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>876</v>
+        <v>696</v>
       </c>
       <c r="C16" t="n">
-        <v>284.2105263157895</v>
+        <v>65.71428571428572</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45397</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="C17" t="n">
-        <v>-98.63013698630137</v>
+        <v>-77.58620689655173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45404</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>780</v>
+        <v>474</v>
       </c>
       <c r="C18" t="n">
-        <v>6400</v>
+        <v>203.8461538461538</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45411</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>60</v>
+        <v>228</v>
       </c>
       <c r="C19" t="n">
-        <v>-92.30769230769231</v>
+        <v>-51.89873417721519</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45418</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>408</v>
+        <v>876</v>
       </c>
       <c r="C20" t="n">
-        <v>580</v>
+        <v>284.2105263157895</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45432</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="C21" t="n">
-        <v>-26.47058823529411</v>
+        <v>-98.63013698630137</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45439</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>708</v>
+        <v>780</v>
       </c>
       <c r="C22" t="n">
-        <v>136</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45453</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>3348</v>
+        <v>60</v>
       </c>
       <c r="C23" t="n">
-        <v>372.8813559322033</v>
+        <v>-92.30769230769231</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45460</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>504</v>
+        <v>408</v>
       </c>
       <c r="C24" t="n">
-        <v>-84.94623655913979</v>
+        <v>580</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45467</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>588</v>
+        <v>300</v>
       </c>
       <c r="C25" t="n">
-        <v>16.66666666666667</v>
+        <v>-26.47058823529411</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45474</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>348</v>
+        <v>708</v>
       </c>
       <c r="C26" t="n">
-        <v>-40.81632653061224</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45481</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>408</v>
+        <v>3348</v>
       </c>
       <c r="C27" t="n">
-        <v>17.24137931034482</v>
+        <v>372.8813559322033</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45502</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>2520</v>
+        <v>504</v>
       </c>
       <c r="C28" t="n">
-        <v>517.6470588235294</v>
+        <v>-84.94623655913979</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45523</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>2016</v>
+        <v>588</v>
       </c>
       <c r="C29" t="n">
-        <v>-20</v>
+        <v>16.66666666666667</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45544</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>876</v>
+        <v>348</v>
       </c>
       <c r="C30" t="n">
-        <v>-56.54761904761904</v>
+        <v>-40.81632653061224</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45551</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>1848</v>
+        <v>408</v>
       </c>
       <c r="C31" t="n">
-        <v>110.958904109589</v>
+        <v>17.24137931034482</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45565</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>12</v>
+        <v>2520</v>
       </c>
       <c r="C32" t="n">
-        <v>-99.35064935064936</v>
+        <v>517.6470588235294</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45572</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>12</v>
+        <v>2016</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45579</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>24</v>
+        <v>876</v>
       </c>
       <c r="C34" t="n">
-        <v>100</v>
+        <v>-56.54761904761904</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45586</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>1428</v>
+        <v>1848</v>
       </c>
       <c r="C35" t="n">
-        <v>5850</v>
+        <v>110.958904109589</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45593</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>1080</v>
+        <v>12</v>
       </c>
       <c r="C36" t="n">
-        <v>-24.36974789915967</v>
+        <v>-99.35064935064936</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45614</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B37" t="n">
+        <v>12</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>24</v>
+      </c>
+      <c r="C38" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1428</v>
+      </c>
+      <c r="C39" t="n">
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1080</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-24.36974789915967</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B41" t="n">
         <v>876</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C41" t="n">
         <v>-18.88888888888889</v>
       </c>
     </row>
@@ -1777,16 +1636,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27648</v>
+        <v>28194</v>
       </c>
       <c r="B2" t="n">
-        <v>768</v>
+        <v>704.85</v>
       </c>
       <c r="C2" t="n">
         <v>3348</v>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1817,7 +1676,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>994.3714285714285</v>
+        <v>1062.923076923077</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B0CMJSH15D_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CMJSH15D_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -939,6 +939,14 @@
       </c>
       <c r="B62" t="n">
         <v>186</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -35287,7 +35295,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C351"/>
+  <dimension ref="A1:C352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35815,7 +35823,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48">
@@ -35848,7 +35856,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
@@ -35991,7 +35999,7 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64">
@@ -36002,7 +36010,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65">
@@ -36013,7 +36021,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>30</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66">
@@ -36024,7 +36032,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>126</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
@@ -36068,7 +36076,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71">
@@ -36079,7 +36087,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72">
@@ -36189,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>126</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82">
@@ -36211,7 +36219,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>12</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84">
@@ -36222,7 +36230,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>102</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85">
@@ -36233,7 +36241,7 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86">
@@ -36244,7 +36252,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>126</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87">
@@ -36255,7 +36263,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>102</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88">
@@ -36277,7 +36285,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>24</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90">
@@ -36299,7 +36307,7 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>126</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92">
@@ -36321,7 +36329,7 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>48</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94">
@@ -36343,7 +36351,7 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>126</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96">
@@ -36431,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>78</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104">
@@ -36442,7 +36450,7 @@
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>72</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105">
@@ -36453,7 +36461,7 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>138</v>
+        <v>78</v>
       </c>
     </row>
     <row r="106">
@@ -36464,7 +36472,7 @@
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>24</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107">
@@ -36475,7 +36483,7 @@
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>138</v>
+        <v>72</v>
       </c>
     </row>
     <row r="108">
@@ -36486,7 +36494,7 @@
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="109">
@@ -36497,7 +36505,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>24</v>
+        <v>78</v>
       </c>
     </row>
     <row r="110">
@@ -36508,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>24</v>
+        <v>138</v>
       </c>
     </row>
     <row r="111">
@@ -36519,7 +36527,7 @@
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>78</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112">
@@ -36530,7 +36538,7 @@
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="113">
@@ -36541,7 +36549,7 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>138</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114">
@@ -36574,7 +36582,7 @@
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117">
@@ -36585,7 +36593,7 @@
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
     </row>
     <row r="118">
@@ -36596,7 +36604,7 @@
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>78</v>
+        <v>36</v>
       </c>
     </row>
     <row r="119">
@@ -36629,7 +36637,7 @@
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>36</v>
+        <v>174</v>
       </c>
     </row>
     <row r="122">
@@ -36640,7 +36648,7 @@
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>78</v>
+        <v>174</v>
       </c>
     </row>
     <row r="123">
@@ -36651,7 +36659,7 @@
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>174</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124">
@@ -36662,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
     </row>
     <row r="125">
@@ -36673,7 +36681,7 @@
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>78</v>
+        <v>36</v>
       </c>
     </row>
     <row r="126">
@@ -36684,7 +36692,7 @@
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>174</v>
+        <v>78</v>
       </c>
     </row>
     <row r="127">
@@ -36728,7 +36736,7 @@
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>90</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131">
@@ -36739,7 +36747,7 @@
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="132">
@@ -36750,7 +36758,7 @@
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>144</v>
+        <v>60</v>
       </c>
     </row>
     <row r="133">
@@ -36761,7 +36769,7 @@
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>60</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134">
@@ -36783,7 +36791,7 @@
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>144</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136">
@@ -36794,7 +36802,7 @@
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137">
@@ -36805,7 +36813,7 @@
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="138">
@@ -36816,7 +36824,7 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>36</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139">
@@ -36904,7 +36912,7 @@
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>36</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147">
@@ -36915,7 +36923,7 @@
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>144</v>
+        <v>60</v>
       </c>
     </row>
     <row r="148">
@@ -36926,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="149">
@@ -36948,7 +36956,7 @@
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="151">
@@ -36959,7 +36967,7 @@
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152">
@@ -36981,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154">
@@ -36992,7 +37000,7 @@
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="155">
@@ -37003,7 +37011,7 @@
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156">
@@ -37025,7 +37033,7 @@
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158">
@@ -37036,7 +37044,7 @@
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159">
@@ -37069,7 +37077,7 @@
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162">
@@ -37091,7 +37099,7 @@
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>102</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164">
@@ -37146,7 +37154,7 @@
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>18</v>
+        <v>102</v>
       </c>
     </row>
     <row r="169">
@@ -37157,7 +37165,7 @@
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>102</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170">
@@ -37168,7 +37176,7 @@
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>18</v>
+        <v>102</v>
       </c>
     </row>
     <row r="171">
@@ -37509,7 +37517,7 @@
         <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="202">
@@ -37520,7 +37528,7 @@
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>78</v>
+        <v>30</v>
       </c>
     </row>
     <row r="203">
@@ -37531,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="204">
@@ -37553,7 +37561,7 @@
         <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="206">
@@ -37630,7 +37638,7 @@
         <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="213">
@@ -37641,7 +37649,7 @@
         <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="214">
@@ -37652,7 +37660,7 @@
         <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>72</v>
+        <v>6</v>
       </c>
     </row>
     <row r="215">
@@ -37663,7 +37671,7 @@
         <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="216">
@@ -37674,7 +37682,7 @@
         <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="217">
@@ -37685,7 +37693,7 @@
         <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>72</v>
+        <v>6</v>
       </c>
     </row>
     <row r="218">
@@ -37696,7 +37704,7 @@
         <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="219">
@@ -37707,7 +37715,7 @@
         <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="220">
@@ -37718,7 +37726,7 @@
         <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="221">
@@ -37740,7 +37748,7 @@
         <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>96</v>
+        <v>168</v>
       </c>
     </row>
     <row r="223">
@@ -37751,7 +37759,7 @@
         <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>84</v>
+        <v>6</v>
       </c>
     </row>
     <row r="224">
@@ -37762,7 +37770,7 @@
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>6</v>
+        <v>96</v>
       </c>
     </row>
     <row r="225">
@@ -37784,7 +37792,7 @@
         <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>96</v>
+        <v>6</v>
       </c>
     </row>
     <row r="227">
@@ -37795,7 +37803,7 @@
         <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>6</v>
+        <v>84</v>
       </c>
     </row>
     <row r="228">
@@ -37806,7 +37814,7 @@
         <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>168</v>
+        <v>96</v>
       </c>
     </row>
     <row r="229">
@@ -37861,7 +37869,7 @@
         <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>510</v>
+        <v>378</v>
       </c>
     </row>
     <row r="234">
@@ -37872,7 +37880,7 @@
         <v>0</v>
       </c>
       <c r="C234" t="n">
-        <v>6</v>
+        <v>510</v>
       </c>
     </row>
     <row r="235">
@@ -37883,7 +37891,7 @@
         <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>378</v>
+        <v>6</v>
       </c>
     </row>
     <row r="236">
@@ -37971,7 +37979,7 @@
         <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244">
@@ -37982,7 +37990,7 @@
         <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="245">
@@ -37993,7 +38001,7 @@
         <v>0</v>
       </c>
       <c r="C245" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="246">
@@ -38004,7 +38012,7 @@
         <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="247">
@@ -38092,7 +38100,7 @@
         <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>6</v>
+        <v>84</v>
       </c>
     </row>
     <row r="255">
@@ -38103,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>84</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256">
@@ -38114,7 +38122,7 @@
         <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>6</v>
+        <v>84</v>
       </c>
     </row>
     <row r="257">
@@ -38125,7 +38133,7 @@
         <v>0</v>
       </c>
       <c r="C257" t="n">
-        <v>84</v>
+        <v>6</v>
       </c>
     </row>
     <row r="258">
@@ -38136,7 +38144,7 @@
         <v>0</v>
       </c>
       <c r="C258" t="n">
-        <v>72</v>
+        <v>6</v>
       </c>
     </row>
     <row r="259">
@@ -38158,7 +38166,7 @@
         <v>0</v>
       </c>
       <c r="C260" t="n">
-        <v>6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="261">
@@ -38191,7 +38199,7 @@
         <v>0</v>
       </c>
       <c r="C263" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
     </row>
     <row r="264">
@@ -38202,7 +38210,7 @@
         <v>0</v>
       </c>
       <c r="C264" t="n">
-        <v>78</v>
+        <v>6</v>
       </c>
     </row>
     <row r="265">
@@ -38389,7 +38397,7 @@
         <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>210</v>
+        <v>294</v>
       </c>
     </row>
     <row r="282">
@@ -38400,7 +38408,7 @@
         <v>0</v>
       </c>
       <c r="C282" t="n">
-        <v>294</v>
+        <v>114</v>
       </c>
     </row>
     <row r="283">
@@ -38411,7 +38419,7 @@
         <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>24</v>
+        <v>210</v>
       </c>
     </row>
     <row r="284">
@@ -38422,7 +38430,7 @@
         <v>0</v>
       </c>
       <c r="C284" t="n">
-        <v>114</v>
+        <v>294</v>
       </c>
     </row>
     <row r="285">
@@ -38433,7 +38441,7 @@
         <v>0</v>
       </c>
       <c r="C285" t="n">
-        <v>294</v>
+        <v>24</v>
       </c>
     </row>
     <row r="286">
@@ -38444,7 +38452,7 @@
         <v>0</v>
       </c>
       <c r="C286" t="n">
-        <v>24</v>
+        <v>474</v>
       </c>
     </row>
     <row r="287">
@@ -38455,7 +38463,7 @@
         <v>0</v>
       </c>
       <c r="C287" t="n">
-        <v>474</v>
+        <v>24</v>
       </c>
     </row>
     <row r="288">
@@ -38576,7 +38584,7 @@
         <v>0</v>
       </c>
       <c r="C298" t="n">
-        <v>66</v>
+        <v>654</v>
       </c>
     </row>
     <row r="299">
@@ -38587,7 +38595,7 @@
         <v>0</v>
       </c>
       <c r="C299" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="300">
@@ -38598,7 +38606,7 @@
         <v>0</v>
       </c>
       <c r="C300" t="n">
-        <v>654</v>
+        <v>222</v>
       </c>
     </row>
     <row r="301">
@@ -38609,7 +38617,7 @@
         <v>0</v>
       </c>
       <c r="C301" t="n">
-        <v>54</v>
+        <v>222</v>
       </c>
     </row>
     <row r="302">
@@ -38620,7 +38628,7 @@
         <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="303">
@@ -38631,7 +38639,7 @@
         <v>0</v>
       </c>
       <c r="C303" t="n">
-        <v>222</v>
+        <v>654</v>
       </c>
     </row>
     <row r="304">
@@ -38642,7 +38650,7 @@
         <v>0</v>
       </c>
       <c r="C304" t="n">
-        <v>654</v>
+        <v>54</v>
       </c>
     </row>
     <row r="305">
@@ -38653,7 +38661,7 @@
         <v>0</v>
       </c>
       <c r="C305" t="n">
-        <v>222</v>
+        <v>66</v>
       </c>
     </row>
     <row r="306">
@@ -38708,7 +38716,7 @@
         <v>0</v>
       </c>
       <c r="C310" t="n">
-        <v>192</v>
+        <v>228</v>
       </c>
     </row>
     <row r="311">
@@ -38719,7 +38727,7 @@
         <v>0</v>
       </c>
       <c r="C311" t="n">
-        <v>228</v>
+        <v>192</v>
       </c>
     </row>
     <row r="312">
@@ -38730,7 +38738,7 @@
         <v>0</v>
       </c>
       <c r="C312" t="n">
-        <v>228</v>
+        <v>192</v>
       </c>
     </row>
     <row r="313">
@@ -38741,7 +38749,7 @@
         <v>0</v>
       </c>
       <c r="C313" t="n">
-        <v>192</v>
+        <v>18</v>
       </c>
     </row>
     <row r="314">
@@ -38752,7 +38760,7 @@
         <v>0</v>
       </c>
       <c r="C314" t="n">
-        <v>18</v>
+        <v>228</v>
       </c>
     </row>
     <row r="315">
@@ -38785,7 +38793,7 @@
         <v>0</v>
       </c>
       <c r="C317" t="n">
-        <v>900</v>
+        <v>12</v>
       </c>
     </row>
     <row r="318">
@@ -38796,7 +38804,7 @@
         <v>0</v>
       </c>
       <c r="C318" t="n">
-        <v>900</v>
+        <v>12</v>
       </c>
     </row>
     <row r="319">
@@ -38807,7 +38815,7 @@
         <v>0</v>
       </c>
       <c r="C319" t="n">
-        <v>12</v>
+        <v>900</v>
       </c>
     </row>
     <row r="320">
@@ -38818,7 +38826,7 @@
         <v>0</v>
       </c>
       <c r="C320" t="n">
-        <v>12</v>
+        <v>900</v>
       </c>
     </row>
     <row r="321">
@@ -39159,6 +39167,17 @@
         <v>186</v>
       </c>
       <c r="C351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B352" t="n">
+        <v>209</v>
+      </c>
+      <c r="C352" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0CMJSH15D_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CMJSH15D_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -947,6 +947,14 @@
       </c>
       <c r="B63" t="n">
         <v>209</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -35295,7 +35303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C352"/>
+  <dimension ref="A1:C353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37484,7 +37492,7 @@
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199">
@@ -37495,7 +37503,7 @@
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="200">
@@ -37539,7 +37547,7 @@
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="204">
@@ -37550,7 +37558,7 @@
         <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="205">
@@ -37561,7 +37569,7 @@
         <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="206">
@@ -37583,7 +37591,7 @@
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="208">
@@ -37594,7 +37602,7 @@
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="209">
@@ -37627,7 +37635,7 @@
         <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="212">
@@ -37638,7 +37646,7 @@
         <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213">
@@ -37649,7 +37657,7 @@
         <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="214">
@@ -37660,7 +37668,7 @@
         <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="215">
@@ -37671,7 +37679,7 @@
         <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="216">
@@ -37682,7 +37690,7 @@
         <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="217">
@@ -37693,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="218">
@@ -37704,7 +37712,7 @@
         <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="219">
@@ -37715,7 +37723,7 @@
         <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="220">
@@ -37726,7 +37734,7 @@
         <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="221">
@@ -37748,7 +37756,7 @@
         <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>168</v>
+        <v>96</v>
       </c>
     </row>
     <row r="223">
@@ -37759,7 +37767,7 @@
         <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>6</v>
+        <v>84</v>
       </c>
     </row>
     <row r="224">
@@ -37770,7 +37778,7 @@
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>96</v>
+        <v>6</v>
       </c>
     </row>
     <row r="225">
@@ -37781,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>84</v>
+        <v>168</v>
       </c>
     </row>
     <row r="226">
@@ -37792,7 +37800,7 @@
         <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>6</v>
+        <v>84</v>
       </c>
     </row>
     <row r="227">
@@ -37803,7 +37811,7 @@
         <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="228">
@@ -37814,7 +37822,7 @@
         <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>96</v>
+        <v>6</v>
       </c>
     </row>
     <row r="229">
@@ -37858,7 +37866,7 @@
         <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>672</v>
+        <v>378</v>
       </c>
     </row>
     <row r="233">
@@ -37869,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>378</v>
+        <v>510</v>
       </c>
     </row>
     <row r="234">
@@ -37880,7 +37888,7 @@
         <v>0</v>
       </c>
       <c r="C234" t="n">
-        <v>510</v>
+        <v>6</v>
       </c>
     </row>
     <row r="235">
@@ -37891,7 +37899,7 @@
         <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>6</v>
+        <v>672</v>
       </c>
     </row>
     <row r="236">
@@ -38001,7 +38009,7 @@
         <v>0</v>
       </c>
       <c r="C245" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="246">
@@ -38012,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247">
@@ -38100,7 +38108,7 @@
         <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="255">
@@ -38111,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>6</v>
+        <v>84</v>
       </c>
     </row>
     <row r="256">
@@ -38166,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="C260" t="n">
-        <v>72</v>
+        <v>6</v>
       </c>
     </row>
     <row r="261">
@@ -38199,7 +38207,7 @@
         <v>0</v>
       </c>
       <c r="C263" t="n">
-        <v>78</v>
+        <v>6</v>
       </c>
     </row>
     <row r="264">
@@ -38210,7 +38218,7 @@
         <v>0</v>
       </c>
       <c r="C264" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
     </row>
     <row r="265">
@@ -38397,7 +38405,7 @@
         <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>294</v>
+        <v>210</v>
       </c>
     </row>
     <row r="282">
@@ -38408,7 +38416,7 @@
         <v>0</v>
       </c>
       <c r="C282" t="n">
-        <v>114</v>
+        <v>294</v>
       </c>
     </row>
     <row r="283">
@@ -38419,7 +38427,7 @@
         <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>210</v>
+        <v>24</v>
       </c>
     </row>
     <row r="284">
@@ -38430,7 +38438,7 @@
         <v>0</v>
       </c>
       <c r="C284" t="n">
-        <v>294</v>
+        <v>114</v>
       </c>
     </row>
     <row r="285">
@@ -38441,7 +38449,7 @@
         <v>0</v>
       </c>
       <c r="C285" t="n">
-        <v>24</v>
+        <v>294</v>
       </c>
     </row>
     <row r="286">
@@ -38452,7 +38460,7 @@
         <v>0</v>
       </c>
       <c r="C286" t="n">
-        <v>474</v>
+        <v>24</v>
       </c>
     </row>
     <row r="287">
@@ -38463,7 +38471,7 @@
         <v>0</v>
       </c>
       <c r="C287" t="n">
-        <v>24</v>
+        <v>474</v>
       </c>
     </row>
     <row r="288">
@@ -38584,7 +38592,7 @@
         <v>0</v>
       </c>
       <c r="C298" t="n">
-        <v>654</v>
+        <v>66</v>
       </c>
     </row>
     <row r="299">
@@ -38595,7 +38603,7 @@
         <v>0</v>
       </c>
       <c r="C299" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="300">
@@ -38606,7 +38614,7 @@
         <v>0</v>
       </c>
       <c r="C300" t="n">
-        <v>222</v>
+        <v>654</v>
       </c>
     </row>
     <row r="301">
@@ -38617,7 +38625,7 @@
         <v>0</v>
       </c>
       <c r="C301" t="n">
-        <v>222</v>
+        <v>54</v>
       </c>
     </row>
     <row r="302">
@@ -38628,7 +38636,7 @@
         <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="303">
@@ -38639,7 +38647,7 @@
         <v>0</v>
       </c>
       <c r="C303" t="n">
-        <v>654</v>
+        <v>222</v>
       </c>
     </row>
     <row r="304">
@@ -38650,7 +38658,7 @@
         <v>0</v>
       </c>
       <c r="C304" t="n">
-        <v>54</v>
+        <v>654</v>
       </c>
     </row>
     <row r="305">
@@ -38661,7 +38669,7 @@
         <v>0</v>
       </c>
       <c r="C305" t="n">
-        <v>66</v>
+        <v>222</v>
       </c>
     </row>
     <row r="306">
@@ -38716,7 +38724,7 @@
         <v>0</v>
       </c>
       <c r="C310" t="n">
-        <v>228</v>
+        <v>192</v>
       </c>
     </row>
     <row r="311">
@@ -38727,7 +38735,7 @@
         <v>0</v>
       </c>
       <c r="C311" t="n">
-        <v>192</v>
+        <v>228</v>
       </c>
     </row>
     <row r="312">
@@ -38738,7 +38746,7 @@
         <v>0</v>
       </c>
       <c r="C312" t="n">
-        <v>192</v>
+        <v>228</v>
       </c>
     </row>
     <row r="313">
@@ -38749,7 +38757,7 @@
         <v>0</v>
       </c>
       <c r="C313" t="n">
-        <v>18</v>
+        <v>192</v>
       </c>
     </row>
     <row r="314">
@@ -38760,7 +38768,7 @@
         <v>0</v>
       </c>
       <c r="C314" t="n">
-        <v>228</v>
+        <v>18</v>
       </c>
     </row>
     <row r="315">
@@ -38793,7 +38801,7 @@
         <v>0</v>
       </c>
       <c r="C317" t="n">
-        <v>12</v>
+        <v>900</v>
       </c>
     </row>
     <row r="318">
@@ -38804,7 +38812,7 @@
         <v>0</v>
       </c>
       <c r="C318" t="n">
-        <v>12</v>
+        <v>900</v>
       </c>
     </row>
     <row r="319">
@@ -38815,7 +38823,7 @@
         <v>0</v>
       </c>
       <c r="C319" t="n">
-        <v>900</v>
+        <v>12</v>
       </c>
     </row>
     <row r="320">
@@ -38826,7 +38834,7 @@
         <v>0</v>
       </c>
       <c r="C320" t="n">
-        <v>900</v>
+        <v>12</v>
       </c>
     </row>
     <row r="321">
@@ -39178,6 +39186,17 @@
         <v>209</v>
       </c>
       <c r="C352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B353" t="n">
+        <v>87</v>
+      </c>
+      <c r="C353" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0CMJSH15D_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CMJSH15D_sales_po_comparison.xlsx
@@ -954,7 +954,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -39194,7 +39194,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B353" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
